--- a/biology/Histoire de la zoologie et de la botanique/Jean_Joseph_Jacques_Holandre/Jean_Joseph_Jacques_Holandre.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Joseph_Jacques_Holandre/Jean_Joseph_Jacques_Holandre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Joseph-Jacques Holandre (1778, à Fresnes-en-Woëvre - 1857, à Metz) est un naturaliste français. Cofondateur de la Société d'histoire naturelle de la Moselle, il est l'auteur de nombreux ouvrages sur la faune et la flore de Lorraine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Joseph-Jacques Holandre (1778, à Fresnes-en-Woëvre - 1857, à Metz) est un naturaliste français. Cofondateur de la Société d'histoire naturelle de la Moselle, il est l'auteur de nombreux ouvrages sur la faune et la flore de Lorraine.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Joseph Jacques Holandre voit le jour le 4 mai 1778, à Fresnes-en-Woëvre, en Lorraine. Il est très vite initié aux sciences naturelles par son oncle, le naturaliste François Holandre, alors directeur du Cabinet d’histoire naturelle du Prince de Deux-Ponts. Jean Jacques Holandre est chargé de l'exploitation forestière en Illyrie en 1809. Il revient à Metz en 1814. En 1817, il est nommé conservateur du musée d'histoire naturelle de Metz, formé autour des collections du cabinet d’histoire naturelle du Prince de Deux-Ponts. 
 Professeur de Botanique au Jardin des Plantes, Holandre est l’un des fondateurs de la Société d’histoire naturelle de la Moselle. Il en devient le premier secrétaire en 1835. C’est à cette époque qu’il commence à constituer l’herbier de la Moselle. Auteur notamment de la Flore de Moselle (1829), il est l'un des premiers botanistes français à s'approprier la nomenclature linéenne.
@@ -544,7 +558,9 @@
           <t>Publications scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Faune du département de la Moselle,... par Mr Holandre,... Partie ornithologique, ou les oiseaux, Verronnais, 1825.
 Faune du département de la Moselle, par J. Holandre,... Animaux vertébrés : mammifères, oiseaux, reptiles et poissons, Mme Thiel, 1836.
@@ -579,7 +595,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Annette Chomard-Lexa, Christian Pautrot : Les collections d'histoire naturelle de la ville de Metz et les explorateurs naturalistes messins du XIXe siècle, Les collections d’histoire naturelle de la ville de Metz, n° 3/4 septembre 2006 (pp 53-67).</t>
         </is>
